--- a/src/data/IMPORT_LESSON_PhatTrienWeb.xlsx
+++ b/src/data/IMPORT_LESSON_PhatTrienWeb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DoAnTotNghiep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DoAnTotNghiep\GoatEnglish\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0FBE7F-9E13-45F3-9614-AFBFCDA822CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7081568D-2066-44D4-9624-0B7941A3B207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C94B9B43-E34D-4C0C-8662-AFEF24C89D47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C94B9B43-E34D-4C0C-8662-AFEF24C89D47}"/>
   </bookViews>
   <sheets>
     <sheet name="Mau 01" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="157">
   <si>
     <r>
       <t xml:space="preserve">Đáp án đúng </t>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D382C9EF-85C3-4581-BD16-28A927E8615E}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1788,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAD5055-4949-4107-A4BC-578AEF3A5BDB}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2080,7 +2080,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>22</v>
@@ -2108,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
@@ -2136,7 +2136,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>80</v>
@@ -2166,7 +2166,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>80</v>
@@ -2196,7 +2196,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>89</v>
@@ -2224,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>22</v>
@@ -2252,7 +2252,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>156</v>
@@ -2282,7 +2282,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>89</v>
@@ -2310,7 +2310,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>80</v>
@@ -2334,6 +2334,3523 @@
       <c r="J20" s="4" t="s">
         <v>155</v>
       </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3">
+        <v>4</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="B66" s="3">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="B69" s="3">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="I69" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="B70" s="3">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="B71" s="3">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="B72" s="3">
+        <v>4</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3">
+        <v>4</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="B74" s="3">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="B75" s="3">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="B76" s="3">
+        <v>4</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="B77" s="3">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="B79" s="3">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H79" s="7"/>
+      <c r="I79" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H80" s="7"/>
+      <c r="I80" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="B81" s="3">
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3">
+        <v>5</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="B83" s="3">
+        <v>5</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="B84" s="3">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="B85" s="3">
+        <v>5</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="B86" s="3">
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H86" s="7"/>
+      <c r="I86" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="B87" s="3">
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H87" s="7"/>
+      <c r="I87" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="B88" s="3">
+        <v>5</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88" s="7"/>
+      <c r="I88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="B89" s="3">
+        <v>5</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H89" s="7"/>
+      <c r="I89" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="B90" s="3">
+        <v>5</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H90" s="7"/>
+      <c r="I90" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="B91" s="3">
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="I91" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>89</v>
+      </c>
+      <c r="B92" s="3">
+        <v>5</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
+      <c r="B93" s="3">
+        <v>5</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>91</v>
+      </c>
+      <c r="B94" s="3">
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H94" s="7"/>
+      <c r="I94" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>92</v>
+      </c>
+      <c r="B95" s="3">
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="B96" s="3">
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H96" s="7"/>
+      <c r="I96" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="B97" s="3">
+        <v>5</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="B98" s="3">
+        <v>5</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H98" s="7"/>
+      <c r="I98" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+      <c r="B99" s="3">
+        <v>6</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H99" s="7"/>
+      <c r="I99" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+      <c r="B100" s="3">
+        <v>6</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H100" s="7"/>
+      <c r="I100" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3">
+        <v>6</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H101" s="7"/>
+      <c r="I101" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" s="3">
+        <v>6</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H102" s="7"/>
+      <c r="I102" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>100</v>
+      </c>
+      <c r="B103" s="3">
+        <v>6</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103" s="7"/>
+      <c r="I103" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>101</v>
+      </c>
+      <c r="B104" s="3">
+        <v>6</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H104" s="7"/>
+      <c r="I104" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>102</v>
+      </c>
+      <c r="B105" s="3">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>103</v>
+      </c>
+      <c r="B106" s="3">
+        <v>6</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H106" s="7"/>
+      <c r="I106" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>104</v>
+      </c>
+      <c r="B107" s="3">
+        <v>6</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H107" s="7"/>
+      <c r="I107" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>105</v>
+      </c>
+      <c r="B108" s="3">
+        <v>6</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H108" s="7"/>
+      <c r="I108" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>106</v>
+      </c>
+      <c r="B109" s="3">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H109" s="7"/>
+      <c r="I109" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>107</v>
+      </c>
+      <c r="B110" s="3">
+        <v>6</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H110" s="7"/>
+      <c r="I110" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>108</v>
+      </c>
+      <c r="B111" s="3">
+        <v>6</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F111" s="8"/>
+      <c r="G111" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111" s="7"/>
+      <c r="I111" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>109</v>
+      </c>
+      <c r="B112" s="3">
+        <v>6</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H112" s="7"/>
+      <c r="I112" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>110</v>
+      </c>
+      <c r="B113" s="3">
+        <v>6</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H113" s="7"/>
+      <c r="I113" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>111</v>
+      </c>
+      <c r="B114" s="3">
+        <v>6</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H114" s="7"/>
+      <c r="I114" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>112</v>
+      </c>
+      <c r="B115" s="3">
+        <v>6</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H115" s="7"/>
+      <c r="I115" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>113</v>
+      </c>
+      <c r="B116" s="3">
+        <v>6</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H116" s="7"/>
+      <c r="I116" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>114</v>
+      </c>
+      <c r="B117" s="3">
+        <v>6</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H117" s="7"/>
+      <c r="I117" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>115</v>
+      </c>
+      <c r="B118" s="3">
+        <v>6</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H118" s="7"/>
+      <c r="I118" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>116</v>
+      </c>
+      <c r="B119" s="3">
+        <v>7</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H119" s="7"/>
+      <c r="I119" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>117</v>
+      </c>
+      <c r="B120" s="3">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H120" s="7"/>
+      <c r="I120" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>118</v>
+      </c>
+      <c r="B121" s="3">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H121" s="7"/>
+      <c r="I121" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>119</v>
+      </c>
+      <c r="B122" s="3">
+        <v>7</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H122" s="7"/>
+      <c r="I122" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>120</v>
+      </c>
+      <c r="B123" s="3">
+        <v>7</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H123" s="7"/>
+      <c r="I123" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>121</v>
+      </c>
+      <c r="B124" s="3">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H124" s="7"/>
+      <c r="I124" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>122</v>
+      </c>
+      <c r="B125" s="3">
+        <v>7</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H125" s="7"/>
+      <c r="I125" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>123</v>
+      </c>
+      <c r="B126" s="3">
+        <v>7</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H126" s="7"/>
+      <c r="I126" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>124</v>
+      </c>
+      <c r="B127" s="3">
+        <v>7</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H127" s="7"/>
+      <c r="I127" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>125</v>
+      </c>
+      <c r="B128" s="3">
+        <v>7</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H128" s="7"/>
+      <c r="I128" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>126</v>
+      </c>
+      <c r="B129" s="3">
+        <v>7</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H129" s="7"/>
+      <c r="I129" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>127</v>
+      </c>
+      <c r="B130" s="3">
+        <v>7</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H130" s="7"/>
+      <c r="I130" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>128</v>
+      </c>
+      <c r="B131" s="3">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H131" s="7"/>
+      <c r="I131" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>129</v>
+      </c>
+      <c r="B132" s="3">
+        <v>7</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F132" s="8"/>
+      <c r="G132" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H132" s="7"/>
+      <c r="I132" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>130</v>
+      </c>
+      <c r="B133" s="3">
+        <v>7</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F133" s="8"/>
+      <c r="G133" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H133" s="7"/>
+      <c r="I133" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>131</v>
+      </c>
+      <c r="B134" s="3">
+        <v>7</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F134" s="8"/>
+      <c r="G134" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H134" s="7"/>
+      <c r="I134" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>132</v>
+      </c>
+      <c r="B135" s="3">
+        <v>7</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H135" s="7"/>
+      <c r="I135" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>133</v>
+      </c>
+      <c r="B136" s="3">
+        <v>7</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H136" s="7"/>
+      <c r="I136" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>134</v>
+      </c>
+      <c r="B137" s="3">
+        <v>7</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H137" s="7"/>
+      <c r="I137" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>135</v>
+      </c>
+      <c r="B138" s="3">
+        <v>7</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F138" s="8"/>
+      <c r="G138" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H138" s="7"/>
+      <c r="I138" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>136</v>
+      </c>
+      <c r="B139" s="3">
+        <v>7</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H139" s="7"/>
+      <c r="I139" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>137</v>
+      </c>
+      <c r="B140" s="3">
+        <v>7</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F140" s="8"/>
+      <c r="G140" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H140" s="7"/>
+      <c r="I140" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>138</v>
+      </c>
+      <c r="B141" s="3">
+        <v>7</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H141" s="7"/>
+      <c r="I141" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
